--- a/CaveStory/기획/스케줄.xlsx
+++ b/CaveStory/기획/스케줄.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMEN\Desktop\혁진\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17333A7-5D0D-4FAD-8D3A-05E82B1BEBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CEA3E4-BB05-42B9-A284-90D38F669F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="76">
   <si>
     <t>신혁진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트, 에니메이팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +329,32 @@
   </si>
   <si>
     <t>주민 (애니메이션) &amp; 영웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사용 이펙트 &amp;
+ 건설완료 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트, 애니메이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전먼지 애니메이팅&amp;
+ 공격 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형 지물 애니메이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 일러스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층 사천왕 모델링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -474,153 +496,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -632,14 +511,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -654,9 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,14 +545,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,74 +561,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1076,7 +913,7 @@
   <dimension ref="B2:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1105,369 +942,382 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="21">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="21">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="21">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="21">
         <v>6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="21">
         <v>7</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="21">
         <v>8</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="21">
         <v>9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="21">
         <v>10</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="21">
         <v>11</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="21">
         <v>12</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="I6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="D7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="D8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>69</v>
+      <c r="F13" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="20"/>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/CaveStory/기획/스케줄.xlsx
+++ b/CaveStory/기획/스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMEN\Desktop\혁진\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CEA3E4-BB05-42B9-A284-90D38F669F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3455C-71B7-4886-BD46-5DBEE409F61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="계획표" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="76">
   <si>
     <t>신혁진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,11 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대장간(무기 제작)
-무기장착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>층별 이동 &amp; 텔레포트
 카드 뽑기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +351,10 @@
   </si>
   <si>
     <t>1층 사천왕 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,19 +572,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -592,6 +580,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D384A8AF-77D8-47C6-B999-C74583319A14}">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -942,89 +942,89 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>4</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>5</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>6</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>7</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <v>8</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>9</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>10</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="20">
         <v>11</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <v>12</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1042,28 +1042,28 @@
       <c r="G5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1072,24 +1072,24 @@
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
@@ -1098,34 +1098,34 @@
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1134,61 +1134,61 @@
       <c r="D8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -1200,7 +1200,7 @@
       <c r="D10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -1215,13 +1215,13 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -1233,28 +1233,28 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
@@ -1263,31 +1263,31 @@
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="12" t="s">
@@ -1297,15 +1297,19 @@
         <v>62</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="11"/>
